--- a/dataproject/merged_data.xlsx
+++ b/dataproject/merged_data.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>00 Forbrugerprisindekset i alt</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>OBS.VALUE</t>
+          <t>real_rate</t>
         </is>
       </c>
     </row>

--- a/dataproject/merged_data.xlsx
+++ b/dataproject/merged_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:C235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,11 +450,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>real_rate</t>
         </is>
       </c>
@@ -467,10 +462,7 @@
         <v>1.1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.372939684210526</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +473,7 @@
         <v>1.7</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.220236904761905</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -497,9 +486,6 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
-        <v>3.121088772727273</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -509,10 +495,7 @@
         <v>1.2</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.977029086956522</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -523,10 +506,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.967851904761905</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -537,10 +517,7 @@
         <v>1.2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.9983385</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -551,10 +528,7 @@
         <v>1.5</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.105760428571428</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -565,10 +539,7 @@
         <v>1.8</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.903921904761905</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -579,10 +550,7 @@
         <v>1.4</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.742630863636364</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -593,10 +561,7 @@
         <v>1.8</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.588446272727273</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -607,10 +572,7 @@
         <v>2.1</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.646129761904762</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -621,10 +583,7 @@
         <v>2.3</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.696116826086957</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -635,10 +594,7 @@
         <v>2.4</v>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.591651045454546</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -649,10 +605,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.818145761904762</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -663,10 +616,7 @@
         <v>1.9</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.057067772727273</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -677,10 +627,7 @@
         <v>2.3</v>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.019213904761905</v>
+        <v>2.238095238095238</v>
       </c>
     </row>
     <row r="18">
@@ -691,10 +638,7 @@
         <v>2.2</v>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.042178681818182</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="19">
@@ -705,10 +649,7 @@
         <v>2.2</v>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.19354275</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="20">
@@ -719,10 +660,7 @@
         <v>1.9</v>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.397476304347826</v>
+        <v>2.478260869565217</v>
       </c>
     </row>
     <row r="21">
@@ -733,10 +671,7 @@
         <v>1.9</v>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.616969833333334</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +682,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.638035409090909</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="23">
@@ -761,10 +693,7 @@
         <v>2.1</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.676322045454546</v>
+        <v>2.690476190476191</v>
       </c>
     </row>
     <row r="24">
@@ -775,10 +704,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3.733031952380952</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="25">
@@ -789,10 +715,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>23</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3.637171086956521</v>
+        <v>2.967391304347826</v>
       </c>
     </row>
     <row r="26">
@@ -803,10 +726,7 @@
         <v>1.7</v>
       </c>
       <c r="C26" t="n">
-        <v>24</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.571056380952381</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -817,10 +737,7 @@
         <v>1.5</v>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.576400545454546</v>
+        <v>3.204545454545455</v>
       </c>
     </row>
     <row r="28">
@@ -831,10 +748,7 @@
         <v>1.8</v>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.598052863636363</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="29">
@@ -845,10 +759,7 @@
         <v>1.8</v>
       </c>
       <c r="C29" t="n">
-        <v>27</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3.676103315789474</v>
+        <v>3.434210526315789</v>
       </c>
     </row>
     <row r="30">
@@ -859,10 +770,7 @@
         <v>1.8</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3.888720181818182</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31">
@@ -873,10 +781,7 @@
         <v>1.9</v>
       </c>
       <c r="C31" t="n">
-        <v>29</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3.9092989</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="32">
@@ -887,10 +792,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
-      </c>
-      <c r="D32" t="n">
-        <v>3.822925318181818</v>
+        <v>3.681818181818182</v>
       </c>
     </row>
     <row r="33">
@@ -901,10 +803,7 @@
         <v>1.6</v>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
-      </c>
-      <c r="D33" t="n">
-        <v>4.031375789473684</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="34">
@@ -915,10 +814,7 @@
         <v>1.7</v>
       </c>
       <c r="C34" t="n">
-        <v>32</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4.177945636363637</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="35">
@@ -929,10 +825,7 @@
         <v>1.4</v>
       </c>
       <c r="C35" t="n">
-        <v>33</v>
-      </c>
-      <c r="D35" t="n">
-        <v>4.435998</v>
+        <v>3.9625</v>
       </c>
     </row>
     <row r="36">
@@ -943,10 +836,7 @@
         <v>1.2</v>
       </c>
       <c r="C36" t="n">
-        <v>34</v>
-      </c>
-      <c r="D36" t="n">
-        <v>4.415021545454546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -957,10 +847,7 @@
         <v>0.9</v>
       </c>
       <c r="C37" t="n">
-        <v>35</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4.160613565217392</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -971,10 +858,7 @@
         <v>1.3</v>
       </c>
       <c r="C38" t="n">
-        <v>36</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.076327650000001</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -985,10 +869,7 @@
         <v>1.7</v>
       </c>
       <c r="C39" t="n">
-        <v>37</v>
-      </c>
-      <c r="D39" t="n">
-        <v>4.118394565217391</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -999,10 +880,7 @@
         <v>2.4</v>
       </c>
       <c r="C40" t="n">
-        <v>38</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.898542090909091</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -1013,10 +891,7 @@
         <v>2.3</v>
       </c>
       <c r="C41" t="n">
-        <v>39</v>
-      </c>
-      <c r="D41" t="n">
-        <v>4.021629157894737</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1027,10 +902,7 @@
         <v>2.9</v>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
-      </c>
-      <c r="D42" t="n">
-        <v>3.745939954545455</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1041,10 +913,7 @@
         <v>3.1</v>
       </c>
       <c r="C43" t="n">
-        <v>41</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3.525923142857143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1055,10 +924,7 @@
         <v>3.1</v>
       </c>
       <c r="C44" t="n">
-        <v>42</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3.500151789473684</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1069,10 +935,7 @@
         <v>3.3</v>
       </c>
       <c r="C45" t="n">
-        <v>43</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3.851855727272727</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1083,10 +946,7 @@
         <v>3.4</v>
       </c>
       <c r="C46" t="n">
-        <v>44</v>
-      </c>
-      <c r="D46" t="n">
-        <v>4.051051904761905</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -1097,10 +957,7 @@
         <v>3.8</v>
       </c>
       <c r="C47" t="n">
-        <v>45</v>
-      </c>
-      <c r="D47" t="n">
-        <v>4.538978380952381</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -1111,10 +968,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>46</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4.472693739130435</v>
+        <v>4.217391304347826</v>
       </c>
     </row>
     <row r="49">
@@ -1125,10 +979,7 @@
         <v>4.4</v>
       </c>
       <c r="C49" t="n">
-        <v>47</v>
-      </c>
-      <c r="D49" t="n">
-        <v>4.084032476190476</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="50">
@@ -1139,10 +990,7 @@
         <v>4.1</v>
       </c>
       <c r="C50" t="n">
-        <v>48</v>
-      </c>
-      <c r="D50" t="n">
-        <v>3.975290818181819</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="51">
@@ -1153,10 +1001,7 @@
         <v>3.7</v>
       </c>
       <c r="C51" t="n">
-        <v>49</v>
-      </c>
-      <c r="D51" t="n">
-        <v>3.734500913043479</v>
+        <v>4.445652173913044</v>
       </c>
     </row>
     <row r="52">
@@ -1167,10 +1012,7 @@
         <v>2.7</v>
       </c>
       <c r="C52" t="n">
-        <v>50</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3.3022348</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="53">
@@ -1181,10 +1023,7 @@
         <v>2.4</v>
       </c>
       <c r="C53" t="n">
-        <v>51</v>
-      </c>
-      <c r="D53" t="n">
-        <v>3.077697523809524</v>
+        <v>3.605263157894737</v>
       </c>
     </row>
     <row r="54">
@@ -1195,10 +1034,7 @@
         <v>1.8</v>
       </c>
       <c r="C54" t="n">
-        <v>52</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.927365428571429</v>
+        <v>3.107142857142857</v>
       </c>
     </row>
     <row r="55">
@@ -1209,10 +1045,7 @@
         <v>1.8</v>
       </c>
       <c r="C55" t="n">
-        <v>53</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2.8228938</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="56">
@@ -1223,10 +1056,7 @@
         <v>1.7</v>
       </c>
       <c r="C56" t="n">
-        <v>54</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.781385454545454</v>
+        <v>2.136363636363636</v>
       </c>
     </row>
     <row r="57">
@@ -1237,10 +1067,7 @@
         <v>1.2</v>
       </c>
       <c r="C57" t="n">
-        <v>55</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2.77767815</v>
+        <v>1.776315789473684</v>
       </c>
     </row>
     <row r="58">
@@ -1251,10 +1078,7 @@
         <v>1.2</v>
       </c>
       <c r="C58" t="n">
-        <v>56</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2.8167574</v>
+        <v>1.497222222222222</v>
       </c>
     </row>
     <row r="59">
@@ -1265,10 +1089,7 @@
         <v>1.2</v>
       </c>
       <c r="C59" t="n">
-        <v>57</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.994024</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="60">
@@ -1279,10 +1100,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>58</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2.762230695652174</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="61">
@@ -1293,10 +1111,7 @@
         <v>1.1</v>
       </c>
       <c r="C61" t="n">
-        <v>59</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2.741551666666667</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="62">
@@ -1307,10 +1122,7 @@
         <v>0.9</v>
       </c>
       <c r="C62" t="n">
-        <v>60</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2.641802</v>
+        <v>0.990909090909091</v>
       </c>
     </row>
     <row r="63">
@@ -1321,10 +1133,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>61</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2.610203181818182</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="64">
@@ -1335,10 +1144,7 @@
         <v>1.3</v>
       </c>
       <c r="C64" t="n">
-        <v>62</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2.575644333333333</v>
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="65">
@@ -1349,10 +1155,7 @@
         <v>1.4</v>
       </c>
       <c r="C65" t="n">
-        <v>63</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2.517357590909091</v>
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="66">
@@ -1363,10 +1166,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>64</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2.54320635</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="67">
@@ -1377,10 +1177,7 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>65</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2.41003905</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="68">
@@ -1391,10 +1188,7 @@
         <v>2.3</v>
       </c>
       <c r="C68" t="n">
-        <v>66</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.309329086956522</v>
+        <v>0.6826086956521739</v>
       </c>
     </row>
     <row r="69">
@@ -1405,10 +1199,7 @@
         <v>2.5</v>
       </c>
       <c r="C69" t="n">
-        <v>67</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2.26883555</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70">
@@ -1419,10 +1210,7 @@
         <v>2.2</v>
       </c>
       <c r="C70" t="n">
-        <v>68</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.952839095238095</v>
+        <v>0.5444444444444445</v>
       </c>
     </row>
     <row r="71">
@@ -1433,10 +1221,7 @@
         <v>1.9</v>
       </c>
       <c r="C71" t="n">
-        <v>69</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.811015954545454</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72">
@@ -1447,10 +1232,7 @@
         <v>2.2</v>
       </c>
       <c r="C72" t="n">
-        <v>70</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.832938454545455</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73">
@@ -1461,10 +1243,7 @@
         <v>2.4</v>
       </c>
       <c r="C73" t="n">
-        <v>71</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.622548181818182</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="74">
@@ -1475,10 +1254,7 @@
         <v>2.5</v>
       </c>
       <c r="C74" t="n">
-        <v>72</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.659511409090909</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75">
@@ -1489,10 +1265,7 @@
         <v>2.4</v>
       </c>
       <c r="C75" t="n">
-        <v>73</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.745780285714286</v>
+        <v>0.4571428571428571</v>
       </c>
     </row>
     <row r="76">
@@ -1503,10 +1276,7 @@
         <v>2.5</v>
       </c>
       <c r="C76" t="n">
-        <v>74</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.897182590909091</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="77">
@@ -1517,10 +1287,7 @@
         <v>2.8</v>
       </c>
       <c r="C77" t="n">
-        <v>75</v>
-      </c>
-      <c r="D77" t="n">
-        <v>2.179937478260869</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="78">
@@ -1531,10 +1298,7 @@
         <v>2.7</v>
       </c>
       <c r="C78" t="n">
-        <v>76</v>
-      </c>
-      <c r="D78" t="n">
-        <v>2.316531380952381</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="79">
@@ -1545,10 +1309,7 @@
         <v>2.7</v>
       </c>
       <c r="C79" t="n">
-        <v>77</v>
-      </c>
-      <c r="D79" t="n">
-        <v>2.5711593</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="80">
@@ -1559,10 +1320,7 @@
         <v>2.7</v>
       </c>
       <c r="C80" t="n">
-        <v>78</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2.693375217391305</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="81">
@@ -1573,10 +1331,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="n">
-        <v>79</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2.859528052631579</v>
+        <v>0.7805555555555554</v>
       </c>
     </row>
     <row r="82">
@@ -1587,10 +1342,7 @@
         <v>3.1</v>
       </c>
       <c r="C82" t="n">
-        <v>80</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2.647196272727273</v>
+        <v>0.8499999999999999</v>
       </c>
     </row>
     <row r="83">
@@ -1601,10 +1353,7 @@
         <v>3</v>
       </c>
       <c r="C83" t="n">
-        <v>81</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2.447039681818182</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="84">
@@ -1615,10 +1364,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>82</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2.311853857142857</v>
+        <v>1.040476190476191</v>
       </c>
     </row>
     <row r="85">
@@ -1629,10 +1375,7 @@
         <v>2.6</v>
       </c>
       <c r="C85" t="n">
-        <v>83</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.761268608695652</v>
+        <v>1.082608695652174</v>
       </c>
     </row>
     <row r="86">
@@ -1643,10 +1386,7 @@
         <v>2.6</v>
       </c>
       <c r="C86" t="n">
-        <v>84</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.5179805</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="87">
@@ -1657,10 +1397,7 @@
         <v>2.8</v>
       </c>
       <c r="C87" t="n">
-        <v>85</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.710677666666667</v>
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="88">
@@ -1671,10 +1408,7 @@
         <v>2.6</v>
       </c>
       <c r="C88" t="n">
-        <v>86</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.841787</v>
+        <v>0.5977272727272728</v>
       </c>
     </row>
     <row r="89">
@@ -1685,10 +1419,7 @@
         <v>2.4</v>
       </c>
       <c r="C89" t="n">
-        <v>87</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.702095285714285</v>
+        <v>0.3476190476190476</v>
       </c>
     </row>
     <row r="90">
@@ -1699,10 +1430,7 @@
         <v>2.8</v>
       </c>
       <c r="C90" t="n">
-        <v>88</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.551329954545454</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91">
@@ -1713,10 +1441,7 @@
         <v>2.7</v>
       </c>
       <c r="C91" t="n">
-        <v>89</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.450711523809524</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="92">
@@ -1727,10 +1452,7 @@
         <v>2.6</v>
       </c>
       <c r="C92" t="n">
-        <v>90</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1.401791136363636</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="93">
@@ -1741,10 +1463,7 @@
         <v>2.2</v>
       </c>
       <c r="C93" t="n">
-        <v>91</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.329481736842105</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="94">
@@ -1755,10 +1474,7 @@
         <v>2.2</v>
       </c>
       <c r="C94" t="n">
-        <v>92</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.099523772727273</v>
+        <v>0.2289473684210526</v>
       </c>
     </row>
     <row r="95">
@@ -1769,10 +1485,7 @@
         <v>2.2</v>
       </c>
       <c r="C95" t="n">
-        <v>93</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.061564476190476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1783,10 +1496,7 @@
         <v>2.3</v>
       </c>
       <c r="C96" t="n">
-        <v>94</v>
-      </c>
-      <c r="D96" t="n">
-        <v>0.8008690909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -1797,10 +1507,7 @@
         <v>2.6</v>
       </c>
       <c r="C97" t="n">
-        <v>95</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.7504651304347827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1811,10 +1518,7 @@
         <v>2.5</v>
       </c>
       <c r="C98" t="n">
-        <v>96</v>
-      </c>
-      <c r="D98" t="n">
-        <v>0.8195624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -1825,10 +1529,7 @@
         <v>2.4</v>
       </c>
       <c r="C99" t="n">
-        <v>97</v>
-      </c>
-      <c r="D99" t="n">
-        <v>0.7993933913043477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -1839,10 +1540,7 @@
         <v>2.3</v>
       </c>
       <c r="C100" t="n">
-        <v>98</v>
-      </c>
-      <c r="D100" t="n">
-        <v>0.6913250909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -1853,10 +1551,7 @@
         <v>2.1</v>
       </c>
       <c r="C101" t="n">
-        <v>99</v>
-      </c>
-      <c r="D101" t="n">
-        <v>0.6072485263157895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1867,10 +1562,7 @@
         <v>1.2</v>
       </c>
       <c r="C102" t="n">
-        <v>100</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.8322290909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -1881,10 +1573,7 @@
         <v>1.2</v>
       </c>
       <c r="C103" t="n">
-        <v>101</v>
-      </c>
-      <c r="D103" t="n">
-        <v>0.8809319999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -1895,10 +1584,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>102</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.6973566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -1909,10 +1595,7 @@
         <v>0.8</v>
       </c>
       <c r="C105" t="n">
-        <v>103</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.5891040476190477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -1923,10 +1606,7 @@
         <v>0.8</v>
       </c>
       <c r="C106" t="n">
-        <v>104</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.6203139545454546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -1937,10 +1617,7 @@
         <v>0.9</v>
       </c>
       <c r="C107" t="n">
-        <v>105</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.9185855000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -1951,10 +1628,7 @@
         <v>0.6</v>
       </c>
       <c r="C108" t="n">
-        <v>106</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.8477993913043479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -1965,10 +1639,7 @@
         <v>0.4</v>
       </c>
       <c r="C109" t="n">
-        <v>107</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.9854688636363637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -1979,10 +1650,7 @@
         <v>0.5</v>
       </c>
       <c r="C110" t="n">
-        <v>108</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.068052523809524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -1993,10 +1661,7 @@
         <v>0.6</v>
       </c>
       <c r="C111" t="n">
-        <v>109</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.9445051304347827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2007,10 +1672,7 @@
         <v>0.6</v>
       </c>
       <c r="C112" t="n">
-        <v>110</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.8303813333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2021,10 +1683,7 @@
         <v>0.7</v>
       </c>
       <c r="C113" t="n">
-        <v>111</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.973776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2035,10 +1694,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>112</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.9394210000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -2049,10 +1705,7 @@
         <v>0.5</v>
       </c>
       <c r="C115" t="n">
-        <v>113</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.7734545500000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2063,10 +1716,7 @@
         <v>0.3</v>
       </c>
       <c r="C116" t="n">
-        <v>114</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.7591125714285715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2077,10 +1727,7 @@
         <v>0.7</v>
       </c>
       <c r="C117" t="n">
-        <v>115</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.73411715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -2091,10 +1738,7 @@
         <v>0.5</v>
       </c>
       <c r="C118" t="n">
-        <v>116</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.6055391428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2105,10 +1749,7 @@
         <v>0.6</v>
       </c>
       <c r="C119" t="n">
-        <v>117</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0.5171122380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2119,10 +1760,7 @@
         <v>0.7</v>
       </c>
       <c r="C120" t="n">
-        <v>118</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.4202437826086957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2133,10 +1771,7 @@
         <v>0.5</v>
       </c>
       <c r="C121" t="n">
-        <v>119</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.3382204761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2147,10 +1782,7 @@
         <v>0.5</v>
       </c>
       <c r="C122" t="n">
-        <v>120</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.2776345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -2161,10 +1793,7 @@
         <v>0.5</v>
       </c>
       <c r="C123" t="n">
-        <v>121</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.2379054347826087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2175,10 +1804,7 @@
         <v>0.5</v>
       </c>
       <c r="C124" t="n">
-        <v>122</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.20157035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2189,10 +1815,7 @@
         <v>0.4</v>
       </c>
       <c r="C125" t="n">
-        <v>123</v>
-      </c>
-      <c r="D125" t="n">
-        <v>0.1482925714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -2203,10 +1826,7 @@
         <v>-0.1</v>
       </c>
       <c r="C126" t="n">
-        <v>124</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0.02293080952380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2217,10 +1837,7 @@
         <v>0.3</v>
       </c>
       <c r="C127" t="n">
-        <v>125</v>
-      </c>
-      <c r="D127" t="n">
-        <v>-0.04841735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2231,10 +1848,7 @@
         <v>0.6</v>
       </c>
       <c r="C128" t="n">
-        <v>126</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-0.0751735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -2245,10 +1859,7 @@
         <v>0.5</v>
       </c>
       <c r="C129" t="n">
-        <v>127</v>
-      </c>
-      <c r="D129" t="n">
-        <v>-0.1031627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2259,10 +1870,7 @@
         <v>0.7</v>
       </c>
       <c r="C130" t="n">
-        <v>128</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0.11987235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2273,10 +1881,7 @@
         <v>0.6</v>
       </c>
       <c r="C131" t="n">
-        <v>129</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0.2336047727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2287,10 +1892,7 @@
         <v>0.7</v>
       </c>
       <c r="C132" t="n">
-        <v>130</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0.1406889565217391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2301,10 +1903,7 @@
         <v>0.6</v>
       </c>
       <c r="C133" t="n">
-        <v>131</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0.07432542857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2315,10 +1914,7 @@
         <v>0.5</v>
       </c>
       <c r="C134" t="n">
-        <v>132</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0.09282818181818181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2329,10 +1925,7 @@
         <v>0.3</v>
       </c>
       <c r="C135" t="n">
-        <v>133</v>
-      </c>
-      <c r="D135" t="n">
-        <v>-0.001598136363636363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -2343,10 +1936,7 @@
         <v>0.3</v>
       </c>
       <c r="C136" t="n">
-        <v>134</v>
-      </c>
-      <c r="D136" t="n">
-        <v>-0.06020285714285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2357,10 +1947,7 @@
         <v>0.4</v>
       </c>
       <c r="C137" t="n">
-        <v>135</v>
-      </c>
-      <c r="D137" t="n">
-        <v>-0.0223905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -2371,10 +1958,7 @@
         <v>0.6</v>
       </c>
       <c r="C138" t="n">
-        <v>136</v>
-      </c>
-      <c r="D138" t="n">
-        <v>-0.09483825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -2385,10 +1969,7 @@
         <v>0.3</v>
       </c>
       <c r="C139" t="n">
-        <v>137</v>
-      </c>
-      <c r="D139" t="n">
-        <v>-0.2732859047619048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2399,10 +1980,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>138</v>
-      </c>
-      <c r="D140" t="n">
-        <v>-0.2894759047619048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -2413,10 +1991,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>139</v>
-      </c>
-      <c r="D141" t="n">
-        <v>-0.3269246666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -2427,10 +2002,7 @@
         <v>0.1</v>
       </c>
       <c r="C142" t="n">
-        <v>140</v>
-      </c>
-      <c r="D142" t="n">
-        <v>-0.3372760909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2441,10 +2013,7 @@
         <v>0.3</v>
       </c>
       <c r="C143" t="n">
-        <v>141</v>
-      </c>
-      <c r="D143" t="n">
-        <v>-0.4273145909090909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -2455,10 +2024,7 @@
         <v>0.3</v>
       </c>
       <c r="C144" t="n">
-        <v>142</v>
-      </c>
-      <c r="D144" t="n">
-        <v>-0.5429127619047619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -2469,10 +2035,7 @@
         <v>0.2</v>
       </c>
       <c r="C145" t="n">
-        <v>143</v>
-      </c>
-      <c r="D145" t="n">
-        <v>-0.5364401304347826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2483,10 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>144</v>
-      </c>
-      <c r="D146" t="n">
-        <v>-0.5402281363636363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -2497,10 +2057,7 @@
         <v>0.3</v>
       </c>
       <c r="C147" t="n">
-        <v>145</v>
-      </c>
-      <c r="D147" t="n">
-        <v>-0.4819274285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -2511,10 +2068,7 @@
         <v>0.4</v>
       </c>
       <c r="C148" t="n">
-        <v>146</v>
-      </c>
-      <c r="D148" t="n">
-        <v>-0.3604691818181818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2525,10 +2079,7 @@
         <v>0.5</v>
       </c>
       <c r="C149" t="n">
-        <v>147</v>
-      </c>
-      <c r="D149" t="n">
-        <v>-0.3989963809523809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2539,10 +2090,7 @@
         <v>0.9</v>
       </c>
       <c r="C150" t="n">
-        <v>148</v>
-      </c>
-      <c r="D150" t="n">
-        <v>-0.3794301363636363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -2553,10 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>149</v>
-      </c>
-      <c r="D151" t="n">
-        <v>-0.42844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2567,10 +2112,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>150</v>
-      </c>
-      <c r="D152" t="n">
-        <v>-0.3501977391304348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -2581,10 +2123,7 @@
         <v>1.1</v>
       </c>
       <c r="C153" t="n">
-        <v>151</v>
-      </c>
-      <c r="D153" t="n">
-        <v>-0.4166842777777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -2595,10 +2134,7 @@
         <v>0.8</v>
       </c>
       <c r="C154" t="n">
-        <v>152</v>
-      </c>
-      <c r="D154" t="n">
-        <v>-0.3109390454545454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -2609,10 +2145,7 @@
         <v>0.6</v>
       </c>
       <c r="C155" t="n">
-        <v>153</v>
-      </c>
-      <c r="D155" t="n">
-        <v>-0.3431682272727273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -2623,10 +2156,7 @@
         <v>1.5</v>
       </c>
       <c r="C156" t="n">
-        <v>154</v>
-      </c>
-      <c r="D156" t="n">
-        <v>-0.1775860476190476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2637,10 +2167,7 @@
         <v>1.5</v>
       </c>
       <c r="C157" t="n">
-        <v>155</v>
-      </c>
-      <c r="D157" t="n">
-        <v>-0.2940722173913043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2651,10 +2178,7 @@
         <v>1.6</v>
       </c>
       <c r="C158" t="n">
-        <v>156</v>
-      </c>
-      <c r="D158" t="n">
-        <v>-0.3098824761904762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2665,10 +2189,7 @@
         <v>1.5</v>
       </c>
       <c r="C159" t="n">
-        <v>157</v>
-      </c>
-      <c r="D159" t="n">
-        <v>-0.2805012727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2679,10 +2200,7 @@
         <v>1.3</v>
       </c>
       <c r="C160" t="n">
-        <v>158</v>
-      </c>
-      <c r="D160" t="n">
-        <v>-0.3172714545454545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -2693,10 +2211,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>159</v>
-      </c>
-      <c r="D161" t="n">
-        <v>-0.2737396315789474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2707,10 +2222,7 @@
         <v>0.7</v>
       </c>
       <c r="C162" t="n">
-        <v>160</v>
-      </c>
-      <c r="D162" t="n">
-        <v>-0.08050522727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2721,10 +2233,7 @@
         <v>0.6</v>
       </c>
       <c r="C163" t="n">
-        <v>161</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.0601245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2735,10 +2244,7 @@
         <v>0.5</v>
       </c>
       <c r="C164" t="n">
-        <v>162</v>
-      </c>
-      <c r="D164" t="n">
-        <v>-0.03065280952380952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2749,10 +2255,7 @@
         <v>0.8</v>
       </c>
       <c r="C165" t="n">
-        <v>163</v>
-      </c>
-      <c r="D165" t="n">
-        <v>-0.05485305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -2763,10 +2266,7 @@
         <v>1.1</v>
       </c>
       <c r="C166" t="n">
-        <v>164</v>
-      </c>
-      <c r="D166" t="n">
-        <v>-0.09387759090909092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -2777,10 +2277,7 @@
         <v>1.1</v>
       </c>
       <c r="C167" t="n">
-        <v>165</v>
-      </c>
-      <c r="D167" t="n">
-        <v>-0.1961390952380953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -2791,10 +2288,7 @@
         <v>1.1</v>
       </c>
       <c r="C168" t="n">
-        <v>166</v>
-      </c>
-      <c r="D168" t="n">
-        <v>-0.2338723636363636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -2805,10 +2299,7 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>167</v>
-      </c>
-      <c r="D169" t="n">
-        <v>-0.2224793478260869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -2819,10 +2310,7 @@
         <v>0.6</v>
       </c>
       <c r="C170" t="n">
-        <v>168</v>
-      </c>
-      <c r="D170" t="n">
-        <v>-0.13153385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -2833,10 +2321,7 @@
         <v>0.8</v>
       </c>
       <c r="C171" t="n">
-        <v>169</v>
-      </c>
-      <c r="D171" t="n">
-        <v>-0.1074339565217391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -2847,10 +2332,7 @@
         <v>0.8</v>
       </c>
       <c r="C172" t="n">
-        <v>170</v>
-      </c>
-      <c r="D172" t="n">
-        <v>-0.1735343636363637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -2861,10 +2343,7 @@
         <v>0.8</v>
       </c>
       <c r="C173" t="n">
-        <v>171</v>
-      </c>
-      <c r="D173" t="n">
-        <v>-0.2428384705882353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -2875,10 +2354,7 @@
         <v>1.3</v>
       </c>
       <c r="C174" t="n">
-        <v>172</v>
-      </c>
-      <c r="D174" t="n">
-        <v>-0.3047832727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -2889,10 +2365,7 @@
         <v>1.1</v>
       </c>
       <c r="C175" t="n">
-        <v>173</v>
-      </c>
-      <c r="D175" t="n">
-        <v>-0.33560295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -2903,10 +2376,7 @@
         <v>1.2</v>
       </c>
       <c r="C176" t="n">
-        <v>174</v>
-      </c>
-      <c r="D176" t="n">
-        <v>-0.3585917142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -2917,10 +2387,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>175</v>
-      </c>
-      <c r="D177" t="n">
-        <v>-0.40217245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -2931,10 +2398,7 @@
         <v>0.7</v>
       </c>
       <c r="C178" t="n">
-        <v>176</v>
-      </c>
-      <c r="D178" t="n">
-        <v>-0.4831809090909091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -2945,10 +2409,7 @@
         <v>0.6</v>
       </c>
       <c r="C179" t="n">
-        <v>177</v>
-      </c>
-      <c r="D179" t="n">
-        <v>-0.59904095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -2959,10 +2420,7 @@
         <v>0.4</v>
       </c>
       <c r="C180" t="n">
-        <v>178</v>
-      </c>
-      <c r="D180" t="n">
-        <v>-0.6650850869565218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -2973,10 +2431,7 @@
         <v>0.4</v>
       </c>
       <c r="C181" t="n">
-        <v>179</v>
-      </c>
-      <c r="D181" t="n">
-        <v>-0.855576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -2987,10 +2442,7 @@
         <v>0.5</v>
       </c>
       <c r="C182" t="n">
-        <v>180</v>
-      </c>
-      <c r="D182" t="n">
-        <v>-0.7874715238095239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -3001,10 +2453,7 @@
         <v>0.6</v>
       </c>
       <c r="C183" t="n">
-        <v>181</v>
-      </c>
-      <c r="D183" t="n">
-        <v>-0.6712706086956521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -3015,10 +2464,7 @@
         <v>0.7</v>
       </c>
       <c r="C184" t="n">
-        <v>182</v>
-      </c>
-      <c r="D184" t="n">
-        <v>-0.5646591904761904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3029,10 +2475,7 @@
         <v>0.8</v>
       </c>
       <c r="C185" t="n">
-        <v>183</v>
-      </c>
-      <c r="D185" t="n">
-        <v>-0.5266098888888888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -3043,10 +2486,7 @@
         <v>0.7</v>
       </c>
       <c r="C186" t="n">
-        <v>184</v>
-      </c>
-      <c r="D186" t="n">
-        <v>-0.5245110454545455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -3057,10 +2497,7 @@
         <v>0.8</v>
       </c>
       <c r="C187" t="n">
-        <v>185</v>
-      </c>
-      <c r="D187" t="n">
-        <v>-0.6408368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3071,10 +2508,7 @@
         <v>0.4</v>
       </c>
       <c r="C188" t="n">
-        <v>186</v>
-      </c>
-      <c r="D188" t="n">
-        <v>-0.6988237727272727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3085,10 +2519,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>187</v>
-      </c>
-      <c r="D189" t="n">
-        <v>-0.5958864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -3099,10 +2530,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>188</v>
-      </c>
-      <c r="D190" t="n">
-        <v>-0.6694614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -3113,10 +2541,7 @@
         <v>0.3</v>
       </c>
       <c r="C191" t="n">
-        <v>189</v>
-      </c>
-      <c r="D191" t="n">
-        <v>-0.6088038181818182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3127,10 +2552,7 @@
         <v>0.5</v>
       </c>
       <c r="C192" t="n">
-        <v>190</v>
-      </c>
-      <c r="D192" t="n">
-        <v>-0.6656393913043478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -3141,10 +2563,7 @@
         <v>0.5</v>
       </c>
       <c r="C193" t="n">
-        <v>191</v>
-      </c>
-      <c r="D193" t="n">
-        <v>-0.6749729523809523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3155,10 +2574,7 @@
         <v>0.6</v>
       </c>
       <c r="C194" t="n">
-        <v>192</v>
-      </c>
-      <c r="D194" t="n">
-        <v>-0.6977703636363637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3169,10 +2585,7 @@
         <v>0.4</v>
       </c>
       <c r="C195" t="n">
-        <v>193</v>
-      </c>
-      <c r="D195" t="n">
-        <v>-0.7624370454545454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3183,10 +2596,7 @@
         <v>0.5</v>
       </c>
       <c r="C196" t="n">
-        <v>194</v>
-      </c>
-      <c r="D196" t="n">
-        <v>-0.7582321904761905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3197,10 +2607,7 @@
         <v>0.5</v>
       </c>
       <c r="C197" t="n">
-        <v>195</v>
-      </c>
-      <c r="D197" t="n">
-        <v>-0.7509089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3211,10 +2618,7 @@
         <v>0.6</v>
       </c>
       <c r="C198" t="n">
-        <v>196</v>
-      </c>
-      <c r="D198" t="n">
-        <v>-0.7321345499999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -3225,10 +2629,7 @@
         <v>0.6</v>
       </c>
       <c r="C199" t="n">
-        <v>197</v>
-      </c>
-      <c r="D199" t="n">
-        <v>-0.6517058999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3239,10 +2640,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>198</v>
-      </c>
-      <c r="D200" t="n">
-        <v>-0.6289512173913043</v>
+        <v>-0.1956521739130435</v>
       </c>
     </row>
     <row r="201">
@@ -3253,10 +2651,7 @@
         <v>1.5</v>
       </c>
       <c r="C201" t="n">
-        <v>199</v>
-      </c>
-      <c r="D201" t="n">
-        <v>-0.60659955</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="202">
@@ -3267,10 +2662,7 @@
         <v>1.7</v>
       </c>
       <c r="C202" t="n">
-        <v>200</v>
-      </c>
-      <c r="D202" t="n">
-        <v>-0.5373494285714285</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="203">
@@ -3281,10 +2673,7 @@
         <v>1.7</v>
       </c>
       <c r="C203" t="n">
-        <v>201</v>
-      </c>
-      <c r="D203" t="n">
-        <v>-0.565608409090909</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="204">
@@ -3295,10 +2684,7 @@
         <v>1.6</v>
       </c>
       <c r="C204" t="n">
-        <v>202</v>
-      </c>
-      <c r="D204" t="n">
-        <v>-0.6629152727272728</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="205">
@@ -3309,10 +2695,7 @@
         <v>1.8</v>
       </c>
       <c r="C205" t="n">
-        <v>203</v>
-      </c>
-      <c r="D205" t="n">
-        <v>-0.7424218181818183</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="206">
@@ -3323,10 +2706,7 @@
         <v>2.2</v>
       </c>
       <c r="C206" t="n">
-        <v>204</v>
-      </c>
-      <c r="D206" t="n">
-        <v>-0.6252515454545454</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207">
@@ -3337,10 +2717,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>205</v>
-      </c>
-      <c r="D207" t="n">
-        <v>-0.4910466666666667</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="208">
@@ -3351,10 +2728,7 @@
         <v>3.4</v>
       </c>
       <c r="C208" t="n">
-        <v>206</v>
-      </c>
-      <c r="D208" t="n">
-        <v>-0.5623741363636363</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="209">
@@ -3365,10 +2739,7 @@
         <v>3.1</v>
       </c>
       <c r="C209" t="n">
-        <v>207</v>
-      </c>
-      <c r="D209" t="n">
-        <v>-0.5677027272727272</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="210">
@@ -3379,10 +2750,7 @@
         <v>4.3</v>
       </c>
       <c r="C210" t="n">
-        <v>208</v>
-      </c>
-      <c r="D210" t="n">
-        <v>-0.3719022857142857</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="211">
@@ -3393,10 +2761,7 @@
         <v>4.8</v>
       </c>
       <c r="C211" t="n">
-        <v>209</v>
-      </c>
-      <c r="D211" t="n">
-        <v>-0.0248156</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="212">
@@ -3407,10 +2772,7 @@
         <v>5.4</v>
       </c>
       <c r="C212" t="n">
-        <v>210</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0.07047260869565218</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="213">
@@ -3421,10 +2783,7 @@
         <v>6.7</v>
       </c>
       <c r="C213" t="n">
-        <v>211</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0.6060991052631579</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="214">
@@ -3435,10 +2794,7 @@
         <v>7.4</v>
       </c>
       <c r="C214" t="n">
-        <v>212</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0.7948630909090909</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="215">
@@ -3449,10 +2805,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C215" t="n">
-        <v>213</v>
-      </c>
-      <c r="D215" t="n">
-        <v>1.329449681818182</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="216">
@@ -3463,10 +2816,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C216" t="n">
-        <v>214</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0.8352367619047618</v>
+        <v>-0.4571428571428571</v>
       </c>
     </row>
     <row r="217">
@@ -3477,10 +2827,7 @@
         <v>8.9</v>
       </c>
       <c r="C217" t="n">
-        <v>215</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0.8530208695652174</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="218">
@@ -3491,10 +2838,7 @@
         <v>10</v>
       </c>
       <c r="C218" t="n">
-        <v>216</v>
-      </c>
-      <c r="D218" t="n">
-        <v>1.677966272727273</v>
+        <v>0.4454545454545455</v>
       </c>
     </row>
     <row r="219">
@@ -3505,10 +2849,7 @@
         <v>10.1</v>
       </c>
       <c r="C219" t="n">
-        <v>217</v>
-      </c>
-      <c r="D219" t="n">
-        <v>2.007128380952381</v>
+        <v>0.7071428571428572</v>
       </c>
     </row>
     <row r="220">
@@ -3519,10 +2860,7 @@
         <v>8.9</v>
       </c>
       <c r="C220" t="n">
-        <v>218</v>
-      </c>
-      <c r="D220" t="n">
-        <v>2.019575090909091</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="221">
@@ -3533,10 +2871,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="C221" t="n">
-        <v>219</v>
-      </c>
-      <c r="D221" t="n">
-        <v>2.105397523809524</v>
+        <v>1.488095238095238</v>
       </c>
     </row>
     <row r="222">
@@ -3547,10 +2882,7 @@
         <v>7.7</v>
       </c>
       <c r="C222" t="n">
-        <v>220</v>
-      </c>
-      <c r="D222" t="n">
-        <v>2.246968318181818</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="223">
@@ -3561,10 +2893,7 @@
         <v>7.6</v>
       </c>
       <c r="C223" t="n">
-        <v>221</v>
-      </c>
-      <c r="D223" t="n">
-        <v>2.4635643</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="224">
@@ -3575,10 +2904,7 @@
         <v>6.7</v>
       </c>
       <c r="C224" t="n">
-        <v>222</v>
-      </c>
-      <c r="D224" t="n">
-        <v>2.456262304347826</v>
+        <v>2.339130434782609</v>
       </c>
     </row>
     <row r="225">
@@ -3589,10 +2915,7 @@
         <v>5.3</v>
       </c>
       <c r="C225" t="n">
-        <v>223</v>
-      </c>
-      <c r="D225" t="n">
-        <v>2.406550777777778</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="226">
@@ -3603,10 +2926,7 @@
         <v>2.9</v>
       </c>
       <c r="C226" t="n">
-        <v>224</v>
-      </c>
-      <c r="D226" t="n">
-        <v>2.342449681818182</v>
+        <v>2.797368421052632</v>
       </c>
     </row>
     <row r="227">
@@ -3617,10 +2937,7 @@
         <v>2.5</v>
       </c>
       <c r="C227" t="n">
-        <v>225</v>
-      </c>
-      <c r="D227" t="n">
-        <v>2.474431136363636</v>
+        <v>2.980952380952381</v>
       </c>
     </row>
     <row r="228">
@@ -3631,10 +2948,7 @@
         <v>3.1</v>
       </c>
       <c r="C228" t="n">
-        <v>226</v>
-      </c>
-      <c r="D228" t="n">
-        <v>2.594971</v>
+        <v>3.123809523809524</v>
       </c>
     </row>
     <row r="229">
@@ -3645,10 +2959,7 @@
         <v>2.4</v>
       </c>
       <c r="C229" t="n">
-        <v>227</v>
-      </c>
-      <c r="D229" t="n">
-        <v>2.576911304347826</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="230">
@@ -3659,10 +2970,7 @@
         <v>0.9</v>
       </c>
       <c r="C230" t="n">
-        <v>228</v>
-      </c>
-      <c r="D230" t="n">
-        <v>2.693625285714285</v>
+        <v>3.480952380952381</v>
       </c>
     </row>
     <row r="231">
@@ -3673,10 +2981,7 @@
         <v>0.1</v>
       </c>
       <c r="C231" t="n">
-        <v>229</v>
-      </c>
-      <c r="D231" t="n">
-        <v>2.776121227272727</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="232">
@@ -3687,10 +2992,7 @@
         <v>0.6</v>
       </c>
       <c r="C232" t="n">
-        <v>230</v>
-      </c>
-      <c r="D232" t="n">
-        <v>2.560302285714286</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="233">
@@ -3701,10 +3003,7 @@
         <v>0.7</v>
       </c>
       <c r="C233" t="n">
-        <v>231</v>
-      </c>
-      <c r="D233" t="n">
-        <v>2.070336736842105</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="234">
@@ -3715,10 +3014,7 @@
         <v>1.2</v>
       </c>
       <c r="C234" t="n">
-        <v>232</v>
-      </c>
-      <c r="D234" t="n">
-        <v>2.102569136363636</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="235">
@@ -3729,10 +3025,7 @@
         <v>0.8</v>
       </c>
       <c r="C235" t="n">
-        <v>233</v>
-      </c>
-      <c r="D235" t="n">
-        <v>2.308056285714286</v>
+        <v>3.600000000000001</v>
       </c>
     </row>
   </sheetData>
